--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l0-11/0_building_init.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l0-11/0_building_init.xlsx
@@ -168,7 +168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Closure"]  I hope that we’ll get along, {@nickname}.
+    <t xml:space="preserve">[name="Closure"]  I hope that we'll get along, {@nickname}.
 </t>
   </si>
   <si>
@@ -180,7 +180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] Even though we’ve suffered many losses, our journey has only just begun, and we will rebuild. This place has always been our home through thick and thin.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] Even though we've suffered many losses, our journey has only just begun, and we will rebuild. This place has always been our home through thick and thin.
 </t>
   </si>
   <si>
@@ -188,11 +188,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] Hopefully you’ll be able to digest all this information. After all, this will be the place that you frequent the most.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] Don’t worry if this all seems a bit overwhelming at first. Take your time to get acquainted, and slowly help this place become more like the home you’d want.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] Hopefully you'll be able to digest all this information. After all, this will be the place that you frequent the most.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] Don't worry if this all seems a bit overwhelming at first. Take your time to get acquainted, and slowly help this place become more like the home you'd want.
 </t>
   </si>
   <si>
